--- a/biology/Zoologie/Gros-bec/Gros-bec.xlsx
+++ b/biology/Zoologie/Gros-bec/Gros-bec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme Gros-bec est appliqué à plusieurs espèces d'oiseaux en raison de la taille de leur bec, celle-ci reflétant davantage une convergence morphologique de taxons granivores que de réels liens systématiques.
 </t>
@@ -511,11 +523,48 @@
           <t>Liste des gros-becs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Des gros-becs se rencontrent dans les anciennes familles des fringillidae et des cardinalidae ou encore dans celle ayant toujours cours des Emberizidae.
-Fringillidae
-Voici les espèces appartenant anciennement à la famille des Fringillidae :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des gros-becs se rencontrent dans les anciennes familles des fringillidae et des cardinalidae ou encore dans celle ayant toujours cours des Emberizidae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gros-bec</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gros-bec</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des gros-becs</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fringillidae</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Voici les espèces appartenant anciennement à la famille des Fringillidae :
 Gros-bec de Sao-Tomé Neospiza concolor
 Gros-bec à ailes dorées Rhynchostruthus socotranus
 Gros-bec des Iles Bonin Chaunoproctus ferreorostris
@@ -535,9 +584,43 @@
 Saltator à gros bec Saltator maxillosus
 Géospize à gros bec Geospiza magnirostris
 Psittirostre à gros bec Chloridops kona
-Oriole à gros bec Icterus gularis
-Cardinalidae
-Voici les espèces appartenant anciennement à la famille des Cardinalidae :
+Oriole à gros bec Icterus gularis</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gros-bec</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gros-bec</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des gros-becs</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cardinalidae</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Voici les espèces appartenant anciennement à la famille des Cardinalidae :
 Gros-bec à dos noir ou Gros-bec à ventre jaune Pheucticus aureoventris
 Gros-bec jaune Pheucticus chrysopeplus
 Gros-bec de la Louisiane ou Gros-bec à poitrine rose Pheucticus ludovicianus
@@ -553,14 +636,82 @@
 Gros-bec indigo Passerina glaucocaerulea
 Gros-bec à cuisses noires Pheucticus tibialis
 Gros-bec à face noire Caryothraustes poliogaster
-Gros bec fuligineux Pitylus fuliginosus
-Emberizidae
-Voici les espèces appartenant anciennement à la famille des Emberizidae :
+Gros bec fuligineux Pitylus fuliginosus</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gros-bec</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gros-bec</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des gros-becs</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Emberizidae</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Voici les espèces appartenant anciennement à la famille des Emberizidae :
 Gros-bec des rizières angolais Oryzoborus angolensis
 Gros-bec des rizières à bec large Oryzoborus crassirostris
-Gros-bec des rizières funèbre Oryzoborus funereus
-Autres familles
-Thraupidae : Organiste gros-bec Euphonia laniirostris
+Gros-bec des rizières funèbre Oryzoborus funereus</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gros-bec</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gros-bec</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des gros-becs</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres familles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Thraupidae : Organiste gros-bec Euphonia laniirostris
 Psittacidae : Conure à gros bec Rhynchopsitta pachyrhyncha
 Corvidae : Corbeau à gros bec Corvus macrorhynchos et Corneille à gros bec Corvus coronoides
 Laridae : Sterne à gros bec Phaetusa simplex
@@ -571,31 +722,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Gros-bec</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gros-bec</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Armani G.C. (1983) Guide des passereaux granivores. Delachaux et Niestlé, Neuchâtel, Paris, 262 p.
 Clement P., Harris A. &amp; Davis J. (1993) (1999) Finches &amp; Sparrows. Christopher Helm, London, 500 p.
